--- a/data/state_election_results/nevada_president.xlsx
+++ b/data/state_election_results/nevada_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E594CFD3-CEA6-9F4C-8759-C4C4A24E5CB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BDDCCF-FB5E-2D47-9D3D-9CADD578C3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18220" yWindow="2200" windowWidth="13720" windowHeight="17440" xr2:uid="{94735C79-2005-CE47-BC7A-2ECC09A74BCB}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>Carson City</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>White Pine</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -107,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -150,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,32 +467,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBB8B61-7D63-6D40-98BB-DB63E428FDFB}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>12735</v>
@@ -509,7 +507,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>3051</v>
@@ -526,7 +524,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>11571</v>
@@ -543,7 +541,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>4557</v>
@@ -560,7 +558,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>74</v>
@@ -577,7 +575,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>105</v>
@@ -594,7 +592,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>1689</v>
@@ -611,7 +609,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>496</v>
@@ -628,7 +626,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>330</v>
@@ -645,7 +643,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>8473</v>
@@ -662,7 +660,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>829</v>
@@ -679,7 +677,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>7288</v>
@@ -696,7 +694,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>547</v>
@@ -713,7 +711,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>902</v>
@@ -730,7 +728,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>128128</v>
@@ -747,7 +745,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>859</v>
@@ -764,7 +762,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>521852</v>
